--- a/output/1Y_P64_1VAL-D.xlsx
+++ b/output/1Y_P64_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G2" s="1">
-        <v>620.7517</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1672</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1672</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E3" s="1">
+        <v>620.7517</v>
+      </c>
       <c r="F3" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G3" s="1">
-        <v>1241.0145</v>
-      </c>
       <c r="H3" s="1">
-        <v>19904.1347</v>
+        <v>9955.9887</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1158</v>
+        <v>9955.9887</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>16.1095</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.2</v>
       </c>
-      <c r="L3" s="1">
-        <v>111.7353</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9888.2647</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>111.7353</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20015.87</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0034</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E4" s="1">
+        <v>1241.0145</v>
+      </c>
       <c r="F4" s="1">
-        <v>577.1692</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1818.1837</v>
+        <v>576.5251</v>
       </c>
       <c r="H4" s="1">
-        <v>31373.3053</v>
+        <v>21414.077</v>
       </c>
       <c r="I4" s="1">
-        <v>30011.1735</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.5061</v>
+        <v>21414.077</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.1158</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>100.5618</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31473.8671</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0486</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E5" s="1">
+        <v>1817.5395</v>
+      </c>
       <c r="F5" s="1">
-        <v>560.0060999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2378.1898</v>
+        <v>559.3810999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>42294.2037</v>
+        <v>32323.4864</v>
       </c>
       <c r="I5" s="1">
-        <v>40022.3471</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.8289</v>
+        <v>32323.4864</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.5058</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>89.3882</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42383.5919</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0219</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E6" s="1">
+        <v>2376.9206</v>
+      </c>
       <c r="F6" s="1">
-        <v>559.9967</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2938.1866</v>
+        <v>559.3717</v>
       </c>
       <c r="H6" s="1">
-        <v>52254.179</v>
+        <v>42272.3449</v>
       </c>
       <c r="I6" s="1">
-        <v>50033.5206</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0287</v>
+        <v>42272.3449</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.8285</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>78.21469999999999</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52332.3937</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E7" s="1">
+        <v>2936.2923</v>
+      </c>
       <c r="F7" s="1">
-        <v>550.4456</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3488.6321</v>
+        <v>549.8312</v>
       </c>
       <c r="H7" s="1">
-        <v>63120.1699</v>
+        <v>53126.631</v>
       </c>
       <c r="I7" s="1">
-        <v>60044.6941</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2115</v>
+        <v>53126.631</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0283</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>67.0412</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63187.211</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0137</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E8" s="1">
+        <v>3486.1235</v>
+      </c>
       <c r="F8" s="1">
-        <v>568.3904</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4057.0225</v>
+        <v>567.756</v>
       </c>
       <c r="H8" s="1">
-        <v>71086.337</v>
+        <v>61083.1595</v>
       </c>
       <c r="I8" s="1">
-        <v>70055.8677</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2678</v>
+        <v>61083.1595</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2111</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>55.8677</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71142.2046</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0279</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.806</v>
       </c>
+      <c r="E9" s="1">
+        <v>4053.8795</v>
+      </c>
       <c r="F9" s="1">
-        <v>562.236</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4619.2585</v>
+        <v>561.6084</v>
       </c>
       <c r="H9" s="1">
-        <v>81824.1587</v>
+        <v>71809.2061</v>
       </c>
       <c r="I9" s="1">
-        <v>80067.04120000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3333</v>
+        <v>71809.2061</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2674</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>44.6941</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81868.8529</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E10" s="1">
+        <v>4615.488</v>
+      </c>
       <c r="F10" s="1">
-        <v>545.4967</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5164.7552</v>
+        <v>544.8878999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>94293.96799999999</v>
+        <v>84265.8873</v>
       </c>
       <c r="I10" s="1">
-        <v>90078.2147</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.4409</v>
+        <v>84265.8873</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3329</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>33.5206</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94327.4886</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0268</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E11" s="1">
+        <v>5160.3759</v>
+      </c>
       <c r="F11" s="1">
-        <v>562.827</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5727.5822</v>
+        <v>562.1989</v>
       </c>
       <c r="H11" s="1">
-        <v>101350.14</v>
+        <v>91313.3668</v>
       </c>
       <c r="I11" s="1">
-        <v>100089.3882</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.475</v>
+        <v>91313.3668</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.4406</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>22.3471</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101372.487</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0283</v>
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E12" s="1">
+        <v>5722.5747</v>
+      </c>
       <c r="F12" s="1">
-        <v>552.2827</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6279.8649</v>
+        <v>551.6663</v>
       </c>
       <c r="H12" s="1">
-        <v>113244.1762</v>
+        <v>103194.6178</v>
       </c>
       <c r="I12" s="1">
-        <v>110100.5618</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5323</v>
+        <v>103194.6178</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4747</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>11.1735</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113255.3497</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0169</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E13" s="1">
+        <v>6274.241</v>
+      </c>
       <c r="F13" s="1">
-        <v>559.8558</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6839.7207</v>
+        <v>559.2309</v>
       </c>
       <c r="H13" s="1">
-        <v>121671.792</v>
+        <v>111612.4737</v>
       </c>
       <c r="I13" s="1">
-        <v>120111.7353</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5609</v>
+        <v>111612.4737</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.532</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10011.1735</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>121671.792</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0128</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E14" s="1">
+        <v>6833.472</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6839.7207</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6274.241</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121628.9677</v>
       </c>
       <c r="I14" s="1">
-        <v>120111.7353</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5609</v>
+        <v>121628.9677</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0972</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>121740.1892</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>121740.1892</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121740.1892</v>
+        <v>111675.2161</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07539999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.1095</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>620.7517</v>
       </c>
       <c r="G2" s="1">
-        <v>620.7517</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1672</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1672</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.1222</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>620.7517</v>
       </c>
       <c r="F3" s="1">
         <v>620.2627</v>
       </c>
       <c r="G3" s="1">
-        <v>1241.0145</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19904.1347</v>
+        <v>9955.9887</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1158</v>
+        <v>9955.9887</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>16.1095</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.2</v>
       </c>
-      <c r="L3" s="1">
-        <v>111.7353</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9888.2647</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>111.7353</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20015.87</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0034</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.3453</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1241.0145</v>
       </c>
       <c r="F4" s="1">
         <v>497.5818</v>
       </c>
       <c r="G4" s="1">
-        <v>1738.5963</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21414.077</v>
       </c>
       <c r="I4" s="1">
-        <v>28630.7053</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4677</v>
+        <v>21414.077</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18630.7053</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.0125</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8630.7053</v>
       </c>
-      <c r="O4" s="1">
-        <v>1481.03</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31481.03</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0488</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.8769</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1738.5963</v>
       </c>
       <c r="F5" s="1">
         <v>510.5912</v>
       </c>
       <c r="G5" s="1">
-        <v>2249.1875</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30919.5436</v>
       </c>
       <c r="I5" s="1">
-        <v>37758.4936</v>
+        <v>1369.2947</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7876</v>
+        <v>32288.8382</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27758.4936</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.966</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9127.788200000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>2353.2418</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42353.2418</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.021</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.8772</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2249.1875</v>
       </c>
       <c r="F6" s="1">
         <v>562.2494</v>
       </c>
       <c r="G6" s="1">
-        <v>2811.4369</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40000.6748</v>
       </c>
       <c r="I6" s="1">
-        <v>47809.9393</v>
+        <v>2241.5064</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0055</v>
+        <v>42242.1812</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37809.9393</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.8105</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10051.4458</v>
       </c>
-      <c r="O6" s="1">
-        <v>2301.796</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52301.796</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.1874</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2811.4369</v>
       </c>
       <c r="F7" s="1">
         <v>504.7444</v>
       </c>
       <c r="G7" s="1">
-        <v>3316.1813</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50867.6094</v>
       </c>
       <c r="I7" s="1">
-        <v>56989.9273</v>
+        <v>2190.0607</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1854</v>
+        <v>53057.6701</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46989.9273</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.7138</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9179.987999999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>3121.808</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63121.808</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0132</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.6132</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3316.1813</v>
       </c>
       <c r="F8" s="1">
         <v>678.842</v>
       </c>
       <c r="G8" s="1">
-        <v>3995.0233</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>58105.4656</v>
       </c>
       <c r="I8" s="1">
-        <v>68946.50780000001</v>
+        <v>3010.0727</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2581</v>
+        <v>61115.5383</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58946.5078</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7754</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11956.5805</v>
       </c>
-      <c r="O8" s="1">
-        <v>1165.2275</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71165.22749999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0268</v>
+        <v>-0.0308</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.806</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3995.0233</v>
       </c>
       <c r="F9" s="1">
         <v>521.255</v>
       </c>
       <c r="G9" s="1">
-        <v>4516.2784</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70766.645</v>
       </c>
       <c r="I9" s="1">
-        <v>78227.97470000001</v>
+        <v>1053.4922</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3213</v>
+        <v>71820.1372</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68227.97470000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.0782</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9281.466899999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>1883.7606</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81883.76059999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0089</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.3524</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4516.2784</v>
       </c>
       <c r="F10" s="1">
         <v>413.2837</v>
       </c>
       <c r="G10" s="1">
-        <v>4929.562</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82454.59729999999</v>
       </c>
       <c r="I10" s="1">
-        <v>85812.72199999999</v>
+        <v>1772.0253</v>
       </c>
       <c r="J10" s="1">
-        <v>17.4078</v>
+        <v>84226.6226</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75812.72199999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.7865</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7584.7473</v>
       </c>
-      <c r="O10" s="1">
-        <v>4299.0133</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94299.01330000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0263</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.7873</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4929.562</v>
       </c>
       <c r="F11" s="1">
         <v>721.72</v>
       </c>
       <c r="G11" s="1">
-        <v>5651.282</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87229.0932</v>
       </c>
       <c r="I11" s="1">
-        <v>98650.17140000001</v>
+        <v>4187.278</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4562</v>
+        <v>91416.37119999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88650.17140000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.9834</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12837.4494</v>
       </c>
-      <c r="O11" s="1">
-        <v>1461.5639</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101461.5639</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0272</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.1269</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5651.282</v>
       </c>
       <c r="F12" s="1">
         <v>448.6797</v>
       </c>
       <c r="G12" s="1">
-        <v>6099.9617</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>101909.0031</v>
       </c>
       <c r="I12" s="1">
-        <v>106783.3442</v>
+        <v>1349.8286</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5056</v>
+        <v>103258.8317</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96783.34420000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1259</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8133.1728</v>
       </c>
-      <c r="O12" s="1">
-        <v>3328.3911</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113328.3911</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0167</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.8817</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6099.9617</v>
       </c>
       <c r="F13" s="1">
         <v>645.78</v>
       </c>
       <c r="G13" s="1">
-        <v>6745.7418</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>108512.2193</v>
       </c>
       <c r="I13" s="1">
-        <v>118330.9887</v>
+        <v>3216.6558</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5416</v>
+        <v>111728.8751</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108330.9887</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7593</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11547.6445</v>
       </c>
-      <c r="O13" s="1">
-        <v>1780.7466</v>
-      </c>
-      <c r="P13" s="1">
-        <v>121780.7466</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0125</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.8917</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6745.7418</v>
       </c>
       <c r="F14" s="1">
         <v>-6745.7418</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120067.4574</v>
       </c>
       <c r="I14" s="1">
-        <v>118330.9887</v>
+        <v>1669.0113</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5416</v>
+        <v>121736.4687</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108330.9887</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0592</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120067.4574</v>
       </c>
-      <c r="O14" s="1">
-        <v>121848.204</v>
-      </c>
-      <c r="P14" s="1">
-        <v>121848.204</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.07539999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.1095</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>620.7517</v>
       </c>
       <c r="G2" s="1">
-        <v>620.7517</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1672</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1672</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.1222</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>620.7517</v>
       </c>
       <c r="F3" s="1">
         <v>620.2627</v>
       </c>
       <c r="G3" s="1">
-        <v>1241.0145</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19904.1347</v>
+        <v>9955.9887</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1158</v>
+        <v>9955.9887</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>16.1095</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.2</v>
       </c>
-      <c r="L3" s="1">
-        <v>111.7353</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9888.2647</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>111.7353</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20015.87</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0034</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.3453</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1241.0145</v>
       </c>
       <c r="F4" s="1">
         <v>506.2893</v>
       </c>
       <c r="G4" s="1">
-        <v>1747.3037</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21414.077</v>
       </c>
       <c r="I4" s="1">
-        <v>28781.739</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4721</v>
+        <v>21414.077</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18781.739</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.1342</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8781.739</v>
       </c>
-      <c r="O4" s="1">
-        <v>1329.9963</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31480.2463</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0488</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.8769</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1747.3037</v>
       </c>
       <c r="F5" s="1">
         <v>518.809</v>
       </c>
       <c r="G5" s="1">
-        <v>2266.1127</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31074.3989</v>
       </c>
       <c r="I5" s="1">
-        <v>38056.4349</v>
+        <v>1218.261</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7937</v>
+        <v>32292.66</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28056.4349</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.057</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9274.695900000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>2055.3004</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42356.3017</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0211</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.8772</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2266.1127</v>
       </c>
       <c r="F6" s="1">
         <v>573.5795000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2839.6922</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40301.6811</v>
       </c>
       <c r="I6" s="1">
-        <v>48310.4309</v>
+        <v>1943.5651</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0126</v>
+        <v>42245.2462</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38310.4309</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.9058</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10253.996</v>
       </c>
-      <c r="O6" s="1">
-        <v>1801.3044</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52303.8107</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.1874</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2839.6922</v>
       </c>
       <c r="F7" s="1">
         <v>518.2187</v>
       </c>
       <c r="G7" s="1">
-        <v>3357.911</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51378.8353</v>
       </c>
       <c r="I7" s="1">
-        <v>57735.4824</v>
+        <v>1689.5691</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1939</v>
+        <v>53068.4044</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47735.4824</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.8101</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9425.0515</v>
       </c>
-      <c r="O7" s="1">
-        <v>2376.2529</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63131.2717</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0133</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.6132</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3357.911</v>
       </c>
       <c r="F8" s="1">
         <v>697.5396</v>
       </c>
       <c r="G8" s="1">
-        <v>4055.4506</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>58836.6443</v>
       </c>
       <c r="I8" s="1">
-        <v>70021.3872</v>
+        <v>2264.5176</v>
       </c>
       <c r="J8" s="1">
-        <v>17.266</v>
+        <v>61101.1618</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60021.3872</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8746</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12285.9047</v>
       </c>
-      <c r="O8" s="1">
-        <v>90.3481</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71149.14200000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0271</v>
+        <v>-0.0312</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.806</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4055.4506</v>
       </c>
       <c r="F9" s="1">
         <v>540.658</v>
       </c>
       <c r="G9" s="1">
-        <v>4596.1085</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71837.03479999999</v>
       </c>
       <c r="I9" s="1">
-        <v>79648.3429</v>
+        <v>-21.3872</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3295</v>
+        <v>71815.6477</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69648.3429</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.174</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9626.9557</v>
       </c>
-      <c r="O9" s="1">
-        <v>463.3924</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81877.4803</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.3524</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4596.1085</v>
       </c>
       <c r="F10" s="1">
         <v>433.2036</v>
       </c>
       <c r="G10" s="1">
-        <v>5029.3122</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83912.07279999999</v>
       </c>
       <c r="I10" s="1">
-        <v>87598.66929999999</v>
+        <v>351.6571</v>
       </c>
       <c r="J10" s="1">
-        <v>17.4176</v>
+        <v>84263.72990000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77598.66929999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8836</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7950.3264</v>
       </c>
-      <c r="O10" s="1">
-        <v>2513.066</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94334.2243</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0267</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.7873</v>
       </c>
       <c r="E11" s="1">
+        <v>5029.3122</v>
+      </c>
+      <c r="F11" s="1">
+        <v>697.2014</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>703.4832</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5732.7953</v>
-      </c>
       <c r="H11" s="1">
-        <v>101442.3867</v>
+        <v>88994.1819</v>
       </c>
       <c r="I11" s="1">
-        <v>100111.7353</v>
+        <v>2401.3307</v>
       </c>
       <c r="J11" s="1">
-        <v>17.463</v>
+        <v>91395.5126</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8951</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12513.066</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101442.3867</v>
+        <v>-12401.3307</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0277</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.1269</v>
       </c>
       <c r="E12" s="1">
+        <v>5726.5136</v>
+      </c>
+      <c r="F12" s="1">
+        <v>528.2577</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>521.976</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6254.7713</v>
-      </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>103265.6469</v>
       </c>
       <c r="I12" s="1">
-        <v>109573.5414</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5184</v>
+        <v>103265.6469</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99575.6747</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.3885</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-9461.8061</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>538.1939</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113329.8593</v>
+        <v>-9575.6747</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0169</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.8817</v>
       </c>
       <c r="E13" s="1">
+        <v>6254.7713</v>
+      </c>
+      <c r="F13" s="1">
+        <v>582.9605</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>589.3284</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6844.0997</v>
-      </c>
       <c r="H13" s="1">
-        <v>121749.6898</v>
+        <v>111266.1267</v>
       </c>
       <c r="I13" s="1">
-        <v>120111.7353</v>
+        <v>424.3253</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5497</v>
+        <v>111690.452</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5866</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10538.1939</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>121749.6898</v>
+        <v>-10424.3253</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0128</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>17.8917</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6837.7318</v>
       </c>
       <c r="F14" s="1">
-        <v>-6844.0997</v>
+        <v>-6837.7318</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121704.7888</v>
       </c>
       <c r="I14" s="1">
-        <v>120111.7353</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5497</v>
+        <v>121704.7888</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0872</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>121818.1308</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>121818.1308</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121818.1308</v>
+        <v>121704.7888</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07539999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.1095</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>620.7517</v>
       </c>
       <c r="G2" s="1">
-        <v>620.7517</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1672</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1672</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.1222</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>620.7517</v>
       </c>
       <c r="F3" s="1">
         <v>620.2627</v>
       </c>
       <c r="G3" s="1">
-        <v>1241.0145</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19904.1347</v>
+        <v>9955.9887</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1158</v>
+        <v>9955.9887</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>16.1095</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.2</v>
       </c>
-      <c r="L3" s="1">
-        <v>111.7353</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9888.2647</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>111.7353</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20015.87</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0034</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.3453</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1241.0145</v>
       </c>
       <c r="F4" s="1">
         <v>515.0257</v>
       </c>
       <c r="G4" s="1">
-        <v>1756.0402</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21414.077</v>
       </c>
       <c r="I4" s="1">
-        <v>28933.2753</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4764</v>
+        <v>21414.077</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18933.2753</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.2563</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8933.275299999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1178.46</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31479.46</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0488</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.8769</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1756.0402</v>
       </c>
       <c r="F5" s="1">
         <v>527.1106</v>
       </c>
       <c r="G5" s="1">
-        <v>2283.1508</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31229.7696</v>
       </c>
       <c r="I5" s="1">
-        <v>38356.3788</v>
+        <v>1066.7247</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7998</v>
+        <v>32296.4944</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28356.3788</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.1479</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9423.103499999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1755.3565</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42359.3665</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0212</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.8772</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2283.1508</v>
       </c>
       <c r="F6" s="1">
         <v>585.08</v>
       </c>
       <c r="G6" s="1">
-        <v>2868.2308</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>40604.6949</v>
       </c>
       <c r="I6" s="1">
-        <v>48815.9708</v>
+        <v>1643.6212</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0195</v>
+        <v>42248.3162</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38815.9708</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.0011</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10459.5921</v>
       </c>
-      <c r="O6" s="1">
-        <v>1295.7645</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52305.8146</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.1874</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2868.2308</v>
       </c>
       <c r="F7" s="1">
         <v>531.9688</v>
       </c>
       <c r="G7" s="1">
-        <v>3400.1996</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51895.1861</v>
       </c>
       <c r="I7" s="1">
-        <v>58491.1</v>
+        <v>1184.0292</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2023</v>
+        <v>53079.2153</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48491.1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.9063</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9675.1291</v>
       </c>
-      <c r="O7" s="1">
-        <v>1620.6353</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63140.7859</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0134</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.6132</v>
       </c>
       <c r="E8" s="1">
+        <v>3400.1996</v>
+      </c>
+      <c r="F8" s="1">
+        <v>653.4247</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>659.7685</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4059.9681</v>
-      </c>
       <c r="H8" s="1">
-        <v>71137.9491</v>
+        <v>59577.6166</v>
       </c>
       <c r="I8" s="1">
-        <v>70111.7353</v>
+        <v>1508.9</v>
       </c>
       <c r="J8" s="1">
-        <v>17.269</v>
+        <v>61086.5166</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.646</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11620.6353</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71137.9491</v>
+        <v>-11508.9</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0274</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.806</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4053.6243</v>
       </c>
       <c r="F9" s="1">
         <v>561.6084</v>
       </c>
       <c r="G9" s="1">
-        <v>4621.5765</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>81865.2205</v>
+        <v>71804.6841</v>
       </c>
       <c r="I9" s="1">
-        <v>80111.7353</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3343</v>
+        <v>71804.6841</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2685</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81865.2205</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.3524</v>
       </c>
       <c r="E10" s="1">
+        <v>4615.2327</v>
+      </c>
+      <c r="F10" s="1">
+        <v>516.1824</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>509.8386</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5131.4152</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>84261.22659999999</v>
       </c>
       <c r="I10" s="1">
-        <v>89468.4973</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.4354</v>
+        <v>84261.22659999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79473.1866</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.2198</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9356.762000000001</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>643.2380000000001</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94328.5107</v>
+        <v>-9473.186600000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0268</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.7873</v>
       </c>
       <c r="E11" s="1">
+        <v>5131.4152</v>
+      </c>
+      <c r="F11" s="1">
+        <v>591.8163</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>598.3616</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5729.7768</v>
-      </c>
       <c r="H11" s="1">
-        <v>101388.9733</v>
+        <v>90800.9042</v>
       </c>
       <c r="I11" s="1">
-        <v>100111.7353</v>
+        <v>526.8134</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4722</v>
+        <v>91327.7176</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.539</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10643.238</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101388.9733</v>
+        <v>-10526.8134</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0282</v>
+        <v>-0.0311</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.1269</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5723.2314</v>
       </c>
       <c r="F12" s="1">
         <v>551.6663</v>
       </c>
       <c r="G12" s="1">
-        <v>6281.4431</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>113272.6353</v>
+        <v>103206.4597</v>
       </c>
       <c r="I12" s="1">
-        <v>110111.7353</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5297</v>
+        <v>103206.4597</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4726</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113272.6353</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0169</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.8817</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6274.8977</v>
       </c>
       <c r="F13" s="1">
         <v>559.2309</v>
       </c>
       <c r="G13" s="1">
-        <v>6840.674</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>121688.7506</v>
+        <v>111624.1555</v>
       </c>
       <c r="I13" s="1">
-        <v>120111.7353</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5585</v>
+        <v>111624.1555</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5302</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>121688.7506</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0128</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>17.8917</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6834.1287</v>
       </c>
       <c r="F14" s="1">
-        <v>-6840.674</v>
+        <v>-6834.1287</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121640.6561</v>
       </c>
       <c r="I14" s="1">
-        <v>120111.7353</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5585</v>
+        <v>121640.6561</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0957</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>121757.1573</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>121757.1573</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121757.1573</v>
+        <v>121640.6561</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07539999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.1095</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>620.7517</v>
       </c>
       <c r="G2" s="1">
-        <v>620.7517</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1672</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1095</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1672</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.1222</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>620.7517</v>
       </c>
       <c r="F3" s="1">
         <v>620.2627</v>
       </c>
       <c r="G3" s="1">
-        <v>1241.0145</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19904.1347</v>
+        <v>9955.9887</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1158</v>
+        <v>9955.9887</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>16.1095</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.2</v>
       </c>
-      <c r="L3" s="1">
-        <v>111.7353</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9888.2647</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>111.7353</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20015.87</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0034</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.3453</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1241.0145</v>
       </c>
       <c r="F4" s="1">
         <v>523.7911</v>
       </c>
       <c r="G4" s="1">
-        <v>1764.8056</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21414.077</v>
       </c>
       <c r="I4" s="1">
-        <v>29085.3142</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4807</v>
+        <v>21414.077</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19085.3142</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3788</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9085.314200000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1026.4212</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31478.6712</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0487</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.8769</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1764.8056</v>
       </c>
       <c r="F5" s="1">
         <v>535.4965999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2300.3022</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31385.6557</v>
       </c>
       <c r="I5" s="1">
-        <v>38658.3328</v>
+        <v>914.6858</v>
       </c>
       <c r="J5" s="1">
-        <v>16.8058</v>
+        <v>32300.3415</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28658.3328</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.2388</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9573.018599999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1453.4026</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42362.4363</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0213</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.8772</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2300.3022</v>
       </c>
       <c r="F6" s="1">
         <v>596.7525000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2897.0547</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>40909.7238</v>
       </c>
       <c r="I6" s="1">
-        <v>49326.5971</v>
+        <v>1341.6672</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0265</v>
+        <v>42251.3911</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39326.5971</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.0963</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10668.2644</v>
       </c>
-      <c r="O6" s="1">
-        <v>785.1382</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52307.8074</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.1874</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2897.0547</v>
       </c>
       <c r="F7" s="1">
         <v>545.9987</v>
       </c>
       <c r="G7" s="1">
-        <v>3443.0534</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>52416.7003</v>
       </c>
       <c r="I7" s="1">
-        <v>59256.8938</v>
+        <v>673.4029</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2106</v>
+        <v>53090.1032</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49256.8938</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0024</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9930.2966</v>
       </c>
-      <c r="O7" s="1">
-        <v>854.8415</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63150.3508</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0135</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.6132</v>
       </c>
       <c r="E8" s="1">
+        <v>3443.0534</v>
+      </c>
+      <c r="F8" s="1">
+        <v>609.9463</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>616.2901000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4059.3435</v>
-      </c>
       <c r="H8" s="1">
-        <v>71127.0055</v>
+        <v>60328.4929</v>
       </c>
       <c r="I8" s="1">
-        <v>70111.7353</v>
+        <v>743.1061999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2717</v>
+        <v>61071.5991</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4264</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10854.8415</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71127.0055</v>
+        <v>-10743.1062</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0277</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.806</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4052.9997</v>
       </c>
       <c r="F9" s="1">
         <v>561.6084</v>
       </c>
       <c r="G9" s="1">
-        <v>4620.952</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>81854.1571</v>
+        <v>71793.6207</v>
       </c>
       <c r="I9" s="1">
-        <v>80111.7353</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3366</v>
+        <v>71793.6207</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2712</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81854.1571</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.3524</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4614.6081</v>
       </c>
       <c r="F10" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5165.8398</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>94313.7712</v>
+        <v>84249.82369999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90111.7353</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.4438</v>
+        <v>84249.82369999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3362</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94313.7712</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0268</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.7873</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5159.496</v>
       </c>
       <c r="F11" s="1">
         <v>562.1989</v>
       </c>
       <c r="G11" s="1">
-        <v>5728.0387</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>101358.2178</v>
+        <v>91297.7977</v>
       </c>
       <c r="I11" s="1">
-        <v>100111.7353</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4775</v>
+        <v>91297.7977</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.4436</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101358.2178</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0283</v>
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.1269</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5721.6949</v>
       </c>
       <c r="F12" s="1">
         <v>551.6663</v>
       </c>
       <c r="G12" s="1">
-        <v>6279.705</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>113241.2927</v>
+        <v>103178.7515</v>
       </c>
       <c r="I12" s="1">
-        <v>110111.7353</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5345</v>
+        <v>103178.7515</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4773</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113241.2927</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0169</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.8817</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6273.3612</v>
       </c>
       <c r="F13" s="1">
         <v>559.2309</v>
       </c>
       <c r="G13" s="1">
-        <v>6838.936</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>121657.8319</v>
+        <v>111596.8221</v>
       </c>
       <c r="I13" s="1">
-        <v>120111.7353</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5629</v>
+        <v>111596.8221</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5345</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>121657.8319</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0128</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.8917</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6832.5921</v>
       </c>
       <c r="F14" s="1">
-        <v>-6838.936</v>
+        <v>-6832.5921</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121613.3073</v>
       </c>
       <c r="I14" s="1">
-        <v>120111.7353</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5629</v>
+        <v>121613.3073</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0993</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>121726.2213</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>121726.2213</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121726.2213</v>
+        <v>121613.3073</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07539999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.8435</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.5609</v>
+        <v>16.0972</v>
       </c>
       <c r="D3" s="1">
-        <v>17.5416</v>
+        <v>16.0592</v>
       </c>
       <c r="E3" s="1">
-        <v>17.5497</v>
+        <v>16.0872</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5585</v>
+        <v>16.0957</v>
       </c>
       <c r="G3" s="1">
-        <v>17.5629</v>
+        <v>16.0993</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1101</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0053</v>
+        <v>0.094</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0046</v>
+        <v>0.0944</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0048</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0054</v>
+        <v>0.0936</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0057</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0977</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1075</v>
+        <v>0.0965</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1066</v>
+        <v>0.0946</v>
       </c>
       <c r="E5" s="3">
-        <v>0.107</v>
+        <v>0.0953</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1072</v>
+        <v>0.0958</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1074</v>
+        <v>0.0961</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.9187</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.2381</v>
+        <v>0.7641</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.2338</v>
+        <v>0.7834</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.2347</v>
+        <v>0.7761</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.2398</v>
+        <v>0.7652</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.2425</v>
+        <v>0.7601</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0269</v>
+        <v>-0.1255</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0294</v>
+        <v>0.0276</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0285</v>
+        <v>0.0267</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0274</v>
+        <v>0.0255</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0268</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>111.7353</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>111.7353</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>111.7353</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>111.7353</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>111.7353</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
